--- a/build/resources/test/data/sample.xlsx
+++ b/build/resources/test/data/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="createCustomerAccount" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t xml:space="preserve">payload</t>
   </si>
@@ -34,12 +34,24 @@
     <t xml:space="preserve">statusCode</t>
   </si>
   <si>
+    <t xml:space="preserve">responseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responseMessage</t>
+  </si>
+  <si>
     <t xml:space="preserve">customerManagementApi/customerAccount</t>
   </si>
   <si>
     <t xml:space="preserve">post</t>
   </si>
   <si>
+    <t xml:space="preserve">City name already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createCity.arg0.ipAddress Invalid IP Address.</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -79,12 +91,6 @@
     <t xml:space="preserve">ipAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">responseCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">responseMessage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ahmedabad</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">system/createCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City name already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createCity.arg0.ipAddress Invalid IP Address.</t>
   </si>
   <si>
     <t xml:space="preserve">customerManagementApi/billingAccount/{accountNumber}/dissociateDiscount</t>
@@ -239,16 +239,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,16 +265,36 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -296,19 +320,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,7 +337,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -327,7 +348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -338,7 +359,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
@@ -349,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>16</v>
@@ -360,7 +381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>14</v>
@@ -384,35 +405,38 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -424,33 +448,33 @@
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>200</v>
@@ -459,28 +483,28 @@
         <v>-1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>400</v>
@@ -489,7 +513,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -508,16 +532,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,6 +558,12 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -540,6 +574,20 @@
       </c>
       <c r="C2" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
